--- a/data/servers_template.xlsx
+++ b/data/servers_template.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f273645f2909ec2/work/ttmacro-manager/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazuhiko.kumano\work\ttmacro-manager\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_2B59D2BFD330593E92D4DE90513088B35299F74D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2E176A-1F97-4708-BCA2-96B2E23A92B6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46716795-99F2-45C1-9D74-54688C9DC44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="3915" windowWidth="17280" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -72,17 +75,22 @@
   </si>
   <si>
     <t>keyfile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>post_cmd</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -90,6 +98,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,12 +170,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -161,8 +186,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{08052F87-7501-40C0-853A-8B41769160CF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,26 +488,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" customWidth="1"/>
-    <col min="12" max="12" width="60.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="11" width="28.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="13" max="13" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -513,16 +540,19 @@
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>ROW()-ROW($A$1)</f>
         <v>1</v>
@@ -538,11 +568,12 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="3"/>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A11" si="0">ROW()-ROW($A$1)</f>
         <v>2</v>
@@ -558,11 +589,12 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="3"/>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -578,11 +610,12 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="3"/>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -598,11 +631,12 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="3"/>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -618,11 +652,12 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="3"/>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -638,11 +673,12 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="3"/>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -658,11 +694,12 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="3"/>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -678,11 +715,12 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="3"/>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -698,11 +736,12 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="3"/>
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -718,11 +757,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -762,8 +802,13 @@
       <c r="M12" t="s">
         <v>8</v>
       </c>
+      <c r="N12" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>